--- a/5_analisis_de_resultados/output/df_diferencias_significativas_resumen.xlsx
+++ b/5_analisis_de_resultados/output/df_diferencias_significativas_resumen.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
     </row>
